--- a/Willamette_water_budget_Ref_2070-2100_months.xlsx
+++ b/Willamette_water_budget_Ref_2070-2100_months.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Willamette_water_budget_Ref_207" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:O27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,55 +1636,55 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
-        <f>C1</f>
+        <f t="shared" ref="C22:O22" si="2">C1</f>
         <v>Annual (cm)</v>
       </c>
       <c r="D22" t="str">
-        <f>D1</f>
+        <f t="shared" si="2"/>
         <v>Oct (cm)</v>
       </c>
       <c r="E22" t="str">
-        <f>E1</f>
+        <f t="shared" si="2"/>
         <v>Nov (cm)</v>
       </c>
       <c r="F22" t="str">
-        <f>F1</f>
+        <f t="shared" si="2"/>
         <v>Dec (cm)</v>
       </c>
       <c r="G22" t="str">
-        <f>G1</f>
+        <f t="shared" si="2"/>
         <v>Jan (cm)</v>
       </c>
       <c r="H22" t="str">
-        <f>H1</f>
+        <f t="shared" si="2"/>
         <v>Feb (cm)</v>
       </c>
       <c r="I22" t="str">
-        <f>I1</f>
+        <f t="shared" si="2"/>
         <v>Mar (cm)</v>
       </c>
       <c r="J22" t="str">
-        <f>J1</f>
+        <f t="shared" si="2"/>
         <v>Apr (cm)</v>
       </c>
       <c r="K22" t="str">
-        <f>K1</f>
+        <f t="shared" si="2"/>
         <v>May (cm)</v>
       </c>
       <c r="L22" t="str">
-        <f>L1</f>
+        <f t="shared" si="2"/>
         <v>Jun (cm)</v>
       </c>
       <c r="M22" t="str">
-        <f>M1</f>
+        <f t="shared" si="2"/>
         <v>Jul (cm)</v>
       </c>
       <c r="N22" t="str">
-        <f>N1</f>
+        <f t="shared" si="2"/>
         <v>Aug (cm)</v>
       </c>
       <c r="O22" t="str">
-        <f>O1</f>
+        <f t="shared" si="2"/>
         <v>Sep (cm)</v>
       </c>
     </row>
@@ -1693,55 +1693,55 @@
         <v>26</v>
       </c>
       <c r="C23" s="2">
-        <f>C2</f>
+        <f t="shared" ref="C23:O23" si="3">C2</f>
         <v>172.231612160765</v>
       </c>
       <c r="D23" s="2">
-        <f>D2</f>
+        <f t="shared" si="3"/>
         <v>10.360585716594599</v>
       </c>
       <c r="E23" s="2">
-        <f>E2</f>
+        <f t="shared" si="3"/>
         <v>28.2693994354733</v>
       </c>
       <c r="F23" s="2">
-        <f>F2</f>
+        <f t="shared" si="3"/>
         <v>34.248053641868999</v>
       </c>
       <c r="G23" s="2">
-        <f>G2</f>
+        <f t="shared" si="3"/>
         <v>23.601203171479298</v>
       </c>
       <c r="H23" s="2">
-        <f>H2</f>
+        <f t="shared" si="3"/>
         <v>16.099007518142301</v>
       </c>
       <c r="I23" s="2">
-        <f>I2</f>
+        <f t="shared" si="3"/>
         <v>21.779312530214</v>
       </c>
       <c r="J23" s="2">
-        <f>J2</f>
+        <f t="shared" si="3"/>
         <v>13.345481105263</v>
       </c>
       <c r="K23" s="2">
-        <f>K2</f>
+        <f t="shared" si="3"/>
         <v>8.5574040764736594</v>
       </c>
       <c r="L23" s="2">
-        <f>L2</f>
+        <f t="shared" si="3"/>
         <v>5.1998315632993304</v>
       </c>
       <c r="M23" s="2">
-        <f>M2</f>
+        <f t="shared" si="3"/>
         <v>2.06976553594499</v>
       </c>
       <c r="N23" s="2">
-        <f>N2</f>
+        <f t="shared" si="3"/>
         <v>2.7727850912806602</v>
       </c>
       <c r="O23" s="2">
-        <f>O2</f>
+        <f t="shared" si="3"/>
         <v>5.6365001236203298</v>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
         <v>4.0821534577666606E-5</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ref="E24:O24" si="2">E5</f>
+        <f t="shared" ref="E24:O24" si="4">E5</f>
         <v>5.66088415044389E-2</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.38864228925199906</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.40402992666666704</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.458497680999994</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.25665411233332991</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.36766256666665997</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.61158303333333097</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.42708159549999897</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.14240424517866671</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.5602479374666635E-2</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.3975223768333269E-4</v>
       </c>
     </row>
@@ -1815,47 +1815,47 @@
         <v>-2.2490976481943998</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:O25" si="3">E6</f>
+        <f t="shared" ref="E25:O25" si="5">E6</f>
         <v>-1.5403758764890201</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.9334318213132398E-2</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-5.3746363821313096E-3</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8462609092034401</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.81055709687836</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4276242172809399</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.65193927113993499</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.2112674924650098E-2</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.5025583871367004E-2</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.23325630166598399</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.6911999258432699</v>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" ref="C26:C27" si="4">SUM(D26:O26)</f>
+        <f t="shared" ref="C26:C27" si="6">SUM(D26:O26)</f>
         <v>0.21137869427016254</v>
       </c>
       <c r="D26" s="2">
@@ -1872,47 +1872,47 @@
         <v>4.9669173597813003</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ref="E26:O26" si="5">E8</f>
+        <f t="shared" ref="E26:O26" si="7">E8</f>
         <v>14.119127421240654</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5124612299903379</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.59699269761009721</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.7676913085675929</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.24905825784620994</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.8550173766923814</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.3672718855057449</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.549570977005911</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.283870633142735</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.2543965837729893</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.038625887709113</v>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30.585691416666609</v>
       </c>
       <c r="D27" s="2">
@@ -1929,47 +1929,47 @@
         <v>2.0420959166666601</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ref="E27:O27" si="6">E9</f>
+        <f t="shared" ref="E27:O27" si="8">E9</f>
         <v>1.57216173333333</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.50810641333333</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.5412813166666599</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6179459566666601</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.21424106</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.6698652300000001</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.49726838</v>
       </c>
       <c r="L27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7425933299999898</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1897765699999896</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.4773379966666602</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5130175133333301</v>
       </c>
     </row>
@@ -1978,55 +1978,55 @@
         <v>21</v>
       </c>
       <c r="C28" s="2">
-        <f>C15</f>
-        <v>0</v>
+        <f>C10</f>
+        <v>1.09191997054138</v>
       </c>
       <c r="D28" s="2">
         <f>D10</f>
         <v>1.9021775115105902E-2</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ref="E28:O28" si="7">E10</f>
+        <f t="shared" ref="E28:O28" si="9">E10</f>
         <v>3.0452870423121601E-6</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5902274632938601E-7</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.09375806243272E-8</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7515864393896604E-4</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.8628921151075302E-2</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.120734214713021</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27953436757911698</v>
       </c>
       <c r="L28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.29610874818310001</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.241427529397201</v>
       </c>
       <c r="N28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7547664254036499E-2</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.6262692077502601E-2</v>
       </c>
     </row>
@@ -2035,55 +2035,55 @@
         <v>31</v>
       </c>
       <c r="C29" s="2">
-        <f>C16</f>
-        <v>0</v>
+        <f>C11</f>
+        <v>2.3551657463498299</v>
       </c>
       <c r="D29" s="2">
         <f>D11</f>
         <v>0.205399530092955</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ref="E29:O29" si="8">E11</f>
+        <f t="shared" ref="E29:O29" si="10">E11</f>
         <v>0.182054358194082</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17826717017239699</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17981323479234701</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.17123194033289099</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.206390683522444</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.219190598972614</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24405520336984801</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24617727680642301</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.25461449677241998</v>
       </c>
       <c r="N29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.24452966488852401</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.219815582945497</v>
       </c>
     </row>
@@ -2092,55 +2092,55 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <f>C17</f>
-        <v>0</v>
+        <f>C12</f>
+        <v>14.815386337136699</v>
       </c>
       <c r="D30" s="2">
         <f>D12</f>
         <v>1.7282697093649</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ref="E30:O30" si="9">E12</f>
+        <f t="shared" ref="E30:O30" si="11">E12</f>
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.4129211832077502</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.96274807319698</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0163146609257199</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.48137403659849</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4937188202368099</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6706607190527401</v>
       </c>
     </row>
@@ -2149,55 +2149,55 @@
         <v>25</v>
       </c>
       <c r="C31" s="2">
-        <f>C19</f>
-        <v>0</v>
+        <f>C14</f>
+        <v>141.379072303063</v>
       </c>
       <c r="D31" s="2">
         <f>D14</f>
         <v>5.6006292668064601</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ref="E31:O31" si="10">E14</f>
+        <f t="shared" ref="E31:O31" si="12">E14</f>
         <v>14.061877315883899</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>24.7795093910802</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22.2582592621382</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14.943994279839799</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>17.248802003156101</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>13.470671601341101</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>10.3870513441728</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>7.4560034807299003</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3712894281377697</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.79870245942764</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.77619640065884</v>
       </c>
     </row>
